--- a/XLSX_comprobantes_done/mendizabal_vta_20240301.xlsx
+++ b/XLSX_comprobantes_done/mendizabal_vta_20240301.xlsx
@@ -512,13 +512,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A2" t="n">
+        <v>40379573</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>136152</v>
@@ -567,13 +565,11 @@
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A3" t="n">
+        <v>40379573</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>136152</v>
@@ -622,13 +618,11 @@
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A4" t="n">
+        <v>40379573</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>136152</v>
@@ -677,13 +671,11 @@
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A5" t="n">
+        <v>40379573</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>136152</v>
@@ -732,13 +724,11 @@
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A6" t="n">
+        <v>40379573</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>136152</v>
@@ -787,13 +777,11 @@
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A7" t="n">
+        <v>40379573</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>136146</v>
@@ -842,13 +830,11 @@
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A8" t="n">
+        <v>40379573</v>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>136146</v>
@@ -897,13 +883,11 @@
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A9" t="n">
+        <v>40379573</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>136146</v>
@@ -943,7 +927,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>23.9999999904</v>
+        <v>24</v>
       </c>
       <c r="M9" t="n">
         <v>3599</v>
@@ -952,13 +936,11 @@
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A10" t="n">
+        <v>40379573</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>130842</v>
@@ -1007,13 +989,11 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A11" t="n">
+        <v>40379573</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>130842</v>
@@ -1062,13 +1042,11 @@
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A12" t="n">
+        <v>40379573</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>130842</v>
@@ -1117,13 +1095,11 @@
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A13" t="n">
+        <v>40379573</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>130842</v>
@@ -1172,13 +1148,11 @@
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A14" t="n">
+        <v>40379573</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>130842</v>
@@ -1227,13 +1201,11 @@
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A15" t="n">
+        <v>40379573</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>134009</v>
@@ -1282,13 +1254,11 @@
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A16" t="n">
+        <v>40379573</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>134009</v>
@@ -1337,13 +1307,11 @@
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A17" t="n">
+        <v>40379573</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>134009</v>
@@ -1392,13 +1360,11 @@
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A18" t="n">
+        <v>40379573</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>134009</v>
@@ -1447,13 +1413,11 @@
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A19" t="n">
+        <v>40379573</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
         <v>111276</v>
@@ -1502,13 +1466,11 @@
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A20" t="n">
+        <v>40379573</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
         <v>125881</v>
@@ -1557,13 +1519,11 @@
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A21" t="n">
+        <v>40379573</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
         <v>111669</v>
@@ -1612,13 +1572,11 @@
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A22" t="n">
+        <v>40379573</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
         <v>134101</v>
@@ -1667,13 +1625,11 @@
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A23" t="n">
+        <v>40379573</v>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
         <v>134101</v>
@@ -1722,13 +1678,11 @@
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A24" t="n">
+        <v>40379573</v>
       </c>
       <c r="B24" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
         <v>125495</v>
@@ -1777,13 +1731,11 @@
       <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A25" t="n">
+        <v>40379573</v>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
         <v>125495</v>
@@ -1832,13 +1784,11 @@
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A26" t="n">
+        <v>40379573</v>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
         <v>114115</v>
@@ -1934,7 +1884,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>651.9999999904001</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
